--- a/02 Excel/Tio Cash Master 3710 Supplemental gnu 30_30_30.xlsx
+++ b/02 Excel/Tio Cash Master 3710 Supplemental gnu 30_30_30.xlsx
@@ -8,21 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cash_\Desktop\Tio Cash Master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE80DF7-2557-447A-8ECE-10E4F0A31E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6351F466-5596-4B20-ACA3-064602B004A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-144" yWindow="-144" windowWidth="23328" windowHeight="13248" firstSheet="4" activeTab="9" xr2:uid="{E10880F2-BB73-45AB-BC27-E4342001CC94}"/>
+    <workbookView xWindow="-144" yWindow="-144" windowWidth="23328" windowHeight="13248" firstSheet="10" activeTab="11" xr2:uid="{C17152A8-F887-4BAE-9E5A-70D3A8A01D90}"/>
   </bookViews>
   <sheets>
-    <sheet name="3710 30 all" sheetId="1" r:id="rId1"/>
-    <sheet name="3711 30 all" sheetId="2" r:id="rId2"/>
-    <sheet name="3712 30 p" sheetId="3" r:id="rId3"/>
-    <sheet name="3713 ^p" sheetId="4" r:id="rId4"/>
-    <sheet name="3714 p corner" sheetId="5" r:id="rId5"/>
-    <sheet name="3715 flat" sheetId="6" r:id="rId6"/>
-    <sheet name="3716 0129 pair" sheetId="7" r:id="rId7"/>
-    <sheet name="3717 0723 pair" sheetId="8" r:id="rId8"/>
-    <sheet name="03718 1119 pair" sheetId="9" r:id="rId9"/>
-    <sheet name="3119 1317pair" sheetId="10" r:id="rId10"/>
+    <sheet name="3710 work30_30_30_all" sheetId="1" r:id="rId1"/>
+    <sheet name="3711 work30_30_30_all fam" sheetId="2" r:id="rId2"/>
+    <sheet name="3712 work30_30_30_all fam e" sheetId="3" r:id="rId3"/>
+    <sheet name="3713 work30_30_30_all fam p" sheetId="4" r:id="rId4"/>
+    <sheet name="3714 work30_30_30 fam p 0129" sheetId="5" r:id="rId5"/>
+    <sheet name="3715 work30_30_30 fam p 0723" sheetId="6" r:id="rId6"/>
+    <sheet name="3716 work30_30_30  fam p 1119" sheetId="7" r:id="rId7"/>
+    <sheet name="3717 work30_30_30 fam p 1317" sheetId="8" r:id="rId8"/>
+    <sheet name="3718 work30_30_30 fam pe 0129" sheetId="9" r:id="rId9"/>
+    <sheet name="3719 work30_30_30 fam pe 0723" sheetId="10" r:id="rId10"/>
+    <sheet name="3720 work30_30_30 fam pe 1119" sheetId="11" r:id="rId11"/>
+    <sheet name="3721 work30_30_30 fam pe 1317" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,28 +42,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -94,11 +74,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -120,66 +97,50 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>19587</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19587</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>202465</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>143113</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B3B20E8-B87F-4FB0-AFC0-3C995A7E9456}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0393390B-B6FC-4428-BEBC-99429BCADDFC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm rot="16200000">
-          <a:off x="-1510396" y="2901583"/>
-          <a:ext cx="11381005" cy="7315200"/>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7772400" cy="3922633"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -191,66 +152,50 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>35644</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>35644</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>104224</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>143113</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1445C3C-9998-4D38-9BF3-F00A911D8384}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBF25CEE-E599-48C7-ACA3-86D69B620065}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm rot="16200000">
-          <a:off x="-988018" y="2601002"/>
-          <a:ext cx="9362524" cy="5486400"/>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7772400" cy="3922633"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -258,70 +203,54 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>28024</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>28024</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>73744</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>143113</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C6F7660-F37B-4F8E-84E3-5319751A8DAB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21104218-7817-4397-9741-F9ABA3D3C6C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm rot="16200000">
-          <a:off x="-759418" y="2334302"/>
-          <a:ext cx="8890084" cy="5486400"/>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7772400" cy="3922633"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -329,70 +258,54 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>43264</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>43264</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>88984</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>143113</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A3462E0-E589-4131-9580-837DE8D39F3F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{546D92D9-578B-4821-B76A-10BD163DF874}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm rot="16200000">
-          <a:off x="-626068" y="2231432"/>
-          <a:ext cx="8653864" cy="5486400"/>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7772400" cy="3922633"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -400,70 +313,54 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>28024</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>28024</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>28024</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>143113</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3178A30C-5593-4F53-ADD3-AC48EFF066F8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B2F67E7-0CE1-419A-90C7-C6024178E15F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm rot="16200000">
-          <a:off x="-641308" y="2170472"/>
-          <a:ext cx="8653864" cy="5486400"/>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7772400" cy="3922633"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -471,70 +368,54 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>50884</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>50884</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>5164</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>143113</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A85CE78B-2A2F-4BFC-927D-FA18AD34B855}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40255898-D146-4DC7-8D24-2CDEAD5B496D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm rot="16200000">
-          <a:off x="-736558" y="2265722"/>
-          <a:ext cx="8890084" cy="5486400"/>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7772400" cy="3922633"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -542,70 +423,54 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>20404</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>20404</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>35644</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>143113</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE56A749-B665-4912-970E-91082F0E5593}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5234E77-14F0-4B43-B843-642DBD88DA70}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm rot="16200000">
-          <a:off x="-767038" y="2296202"/>
-          <a:ext cx="8890084" cy="5486400"/>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7772400" cy="3922633"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -613,70 +478,54 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>12784</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>12784</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>43264</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>143113</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F28C03BC-9258-4B39-B2A9-197735B80354}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85934846-DF75-452A-AFE4-F117318EF0D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm rot="16200000">
-          <a:off x="-1010878" y="2540042"/>
-          <a:ext cx="9362524" cy="5486400"/>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7772400" cy="3922633"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -684,70 +533,164 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>143113</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E723DF55-A7E2-4D6A-9069-273C482574B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7772400" cy="3922633"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>143113</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41A16F50-CE18-4F29-9D3A-58D8C3FDD18A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7772400" cy="3922633"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>910590</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>103122</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>910590</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>186690</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>143113</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91A495F1-DCE2-47E7-AAF0-C795371B101A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{688353E5-54C4-4782-BDB1-D44BA54DE9A5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm rot="16200000">
-          <a:off x="-876174" y="2362326"/>
-          <a:ext cx="9059928" cy="5486400"/>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7772400" cy="3922633"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -759,66 +702,50 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>12784</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>12784</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>73744</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>143113</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4956E222-4FEF-467C-AE38-F4E5B253BB2A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B5876-73DE-4861-B096-A4A9E8003923}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm rot="16200000">
-          <a:off x="-774658" y="2334302"/>
-          <a:ext cx="8890084" cy="5486400"/>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7772400" cy="3922633"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1122,264 +1049,158 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D65F2C91-65B9-4748-9C5F-F80CFF50A06A}">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2E1AC01-4621-467E-8966-0A6F325AF58F}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A28" workbookViewId="0">
-      <selection sqref="A1:I51"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.600000000000001" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{611F1598-E44D-4FAD-B0F1-F39653134058}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.600000000000001" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46D70BF0-0801-46D8-AD11-42D9150FBC34}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.600000000000001" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F632FB9-EBE7-4A52-9E07-2B1FC3C7BB37}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.600000000000001" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F32029D-5E67-41BE-9EA7-C46F0404949C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.600000000000001" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{391C9BB1-BD74-474D-B9B1-449824B1255F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.600000000000001" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5718B0AF-DCD4-42AF-9CC0-980526B55741}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.600000000000001" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27BB2E9C-86DF-41D2-840F-21275700252B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.600000000000001" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="5.07421875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="55.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="str" cm="1">
-        <f t="array" aca="1" ref="A1" ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
-        <v>3710 30 all</v>
-      </c>
-      <c r="B1" t="str" cm="1">
-        <f t="array" aca="1" ref="B1" ca="1">MID(CELL("filename"),SEARCH("[",CELL("filename"))+1,SEARCH(".",CELL("filename"))-1-SEARCH("[",CELL("filename")))</f>
-        <v>Tio Cash Master 3710 Supplemental gnu 30_30_30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{277275AB-B870-4CC6-A079-65A21C5C259B}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection sqref="A1:G42"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.600000000000001" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:2" ht="37.200000000000003" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="str" cm="1">
-        <f t="array" aca="1" ref="A1" ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
-        <v>3119 1317pair</v>
-      </c>
-      <c r="B1" t="str" cm="1">
-        <f t="array" aca="1" ref="B1" ca="1">MID(CELL("filename"),SEARCH("[",CELL("filename"))+1,SEARCH(".",CELL("filename"))-1-SEARCH("[",CELL("filename")))</f>
-        <v>Tio Cash Master 3710 Supplemental gnu 30_30_30</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8874128-4FC5-4D50-ACDB-32728FFE4408}">
-  <dimension ref="A1:B1"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52009F3C-7026-431D-A35E-8C06928DE57F}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
-      <selection sqref="A1:G40"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.600000000000001" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:2" ht="37.200000000000003" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="str" cm="1">
-        <f t="array" aca="1" ref="A1" ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
-        <v>3711 30 all</v>
-      </c>
-      <c r="B1" t="str" cm="1">
-        <f t="array" aca="1" ref="B1" ca="1">MID(CELL("filename"),SEARCH("[",CELL("filename"))+1,SEARCH(".",CELL("filename"))-1-SEARCH("[",CELL("filename")))</f>
-        <v>Tio Cash Master 3710 Supplemental gnu 30_30_30</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2E7D382-47D8-4BD8-B030-74A81FF34A0D}">
-  <dimension ref="A1:B1"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD2C9E0-53E5-4969-BE2E-2566990984D7}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
-      <selection sqref="A1:G39"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.600000000000001" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:2" ht="37.200000000000003" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="str" cm="1">
-        <f t="array" aca="1" ref="A1" ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
-        <v>3712 30 p</v>
-      </c>
-      <c r="B1" t="str" cm="1">
-        <f t="array" aca="1" ref="B1" ca="1">MID(CELL("filename"),SEARCH("[",CELL("filename"))+1,SEARCH(".",CELL("filename"))-1-SEARCH("[",CELL("filename")))</f>
-        <v>Tio Cash Master 3710 Supplemental gnu 30_30_30</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D49927-790D-4BAC-A83F-E8F11635F4B6}">
-  <dimension ref="A1:B1"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E30285D-A62E-4FE7-9407-DCC82DA22230}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A21" workbookViewId="0">
-      <selection sqref="A1:G39"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.600000000000001" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:2" ht="37.200000000000003" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="str" cm="1">
-        <f t="array" aca="1" ref="A1" ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
-        <v>3713 ^p</v>
-      </c>
-      <c r="B1" t="str" cm="1">
-        <f t="array" aca="1" ref="B1" ca="1">MID(CELL("filename"),SEARCH("[",CELL("filename"))+1,SEARCH(".",CELL("filename"))-1-SEARCH("[",CELL("filename")))</f>
-        <v>Tio Cash Master 3710 Supplemental gnu 30_30_30</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{927BE4C7-6FC7-4CA7-95B5-630A9BAEF581}">
-  <dimension ref="A1:B1"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56AFFE49-933A-4DBE-A0C8-91AAAF1F5C2E}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
-      <selection sqref="A1:G40"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.600000000000001" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:2" ht="37.200000000000003" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="str" cm="1">
-        <f t="array" aca="1" ref="A1" ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
-        <v>3714 p corner</v>
-      </c>
-      <c r="B1" t="str" cm="1">
-        <f t="array" aca="1" ref="B1" ca="1">MID(CELL("filename"),SEARCH("[",CELL("filename"))+1,SEARCH(".",CELL("filename"))-1-SEARCH("[",CELL("filename")))</f>
-        <v>Tio Cash Master 3710 Supplemental gnu 30_30_30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9650EE2-BF47-462F-A2FE-2D3AEF0FC52E}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A30" workbookViewId="0">
-      <selection sqref="A1:G40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.600000000000001" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:2" ht="37.200000000000003" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="str" cm="1">
-        <f t="array" aca="1" ref="A1" ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
-        <v>3715 flat</v>
-      </c>
-      <c r="B1" t="str" cm="1">
-        <f t="array" aca="1" ref="B1" ca="1">MID(CELL("filename"),SEARCH("[",CELL("filename"))+1,SEARCH(".",CELL("filename"))-1-SEARCH("[",CELL("filename")))</f>
-        <v>Tio Cash Master 3710 Supplemental gnu 30_30_30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2B211C-1DD4-4C41-B133-E98F11EB0571}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A36" workbookViewId="0">
-      <selection sqref="A1:G42"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.600000000000001" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:2" ht="37.200000000000003" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="str" cm="1">
-        <f t="array" aca="1" ref="A1" ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
-        <v>3716 0129 pair</v>
-      </c>
-      <c r="B1" t="str" cm="1">
-        <f t="array" aca="1" ref="B1" ca="1">MID(CELL("filename"),SEARCH("[",CELL("filename"))+1,SEARCH(".",CELL("filename"))-1-SEARCH("[",CELL("filename")))</f>
-        <v>Tio Cash Master 3710 Supplemental gnu 30_30_30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BDE6A29-F952-4975-858F-F505E44E20F1}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A20" workbookViewId="0">
-      <selection sqref="A1:G41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.600000000000001" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:2" ht="37.200000000000003" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="str" cm="1">
-        <f t="array" aca="1" ref="A1" ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
-        <v>3717 0723 pair</v>
-      </c>
-      <c r="B1" t="str" cm="1">
-        <f t="array" aca="1" ref="B1" ca="1">MID(CELL("filename"),SEARCH("[",CELL("filename"))+1,SEARCH(".",CELL("filename"))-1-SEARCH("[",CELL("filename")))</f>
-        <v>Tio Cash Master 3710 Supplemental gnu 30_30_30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC7218D0-F025-4241-AF68-EBC5E00ECE94}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
-      <selection sqref="A1:G40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.600000000000001" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:2" ht="37.200000000000003" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="str" cm="1">
-        <f t="array" aca="1" ref="A1" ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
-        <v>03718 1119 pair</v>
-      </c>
-      <c r="B1" t="str" cm="1">
-        <f t="array" aca="1" ref="B1" ca="1">MID(CELL("filename"),SEARCH("[",CELL("filename"))+1,SEARCH(".",CELL("filename"))-1-SEARCH("[",CELL("filename")))</f>
-        <v>Tio Cash Master 3710 Supplemental gnu 30_30_30</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
